--- a/Result/DailyRunRealTimeStock/2025-04-30.xlsx
+++ b/Result/DailyRunRealTimeStock/2025-04-30.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,16 +470,37 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>7723</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>20.26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>6936</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>38.8</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.9</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2.37%</t>
         </is>

--- a/Result/DailyRunRealTimeStock/2025-04-30.xlsx
+++ b/Result/DailyRunRealTimeStock/2025-04-30.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,18 +470,18 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7723</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>55.1</v>
+        <v>21.05</v>
       </c>
       <c r="D2" t="n">
-        <v>10.1</v>
+        <v>-0.1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20.26%</t>
+          <t>-0.47%</t>
         </is>
       </c>
     </row>
@@ -491,16 +491,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>7723</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>55.1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20.26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>6936</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>38.8</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.9</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2.37%</t>
         </is>
